--- a/output/plots_MicrotaskComplexityE2.xlsx
+++ b/output/plots_MicrotaskComplexityE2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\Complexity_Metrics\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\Complexity_Metrics\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000D163D-4903-4A5B-BD3C-2C7FF3A0A406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B7766E-9DAD-4ABD-907F-4DD6D509B633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18353" windowHeight="10996" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18353" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="microtaskComplexity" sheetId="1" r:id="rId1"/>
@@ -826,123 +826,393 @@
               <c:f>microtaskComplexity!$E$2:$E$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="114">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="115">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="128">
                   <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,7 +1222,7 @@
               <c:f>microtaskComplexity!$F$2:$F$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -960,115 +1230,385 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="44">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="90">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="116">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="117">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="118">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="124">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="125">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3</c:v>
+                <c:pt idx="127">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,123 +1934,393 @@
               <c:f>microtaskComplexity!$E$2:$E$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="114">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="115">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="128">
                   <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1520,12 +2330,12 @@
               <c:f>microtaskComplexity!$G$2:$G$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>38</c:v>
@@ -1534,109 +2344,379 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="44">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="45">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="48">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="63">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="66">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>183</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="85">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="93">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="127">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>29</c:v>
+                <c:pt idx="128">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,12 +2999,12 @@
               <c:f>microtaskComplexity!$I$2:$I$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="128"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -1936,52 +3016,52 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1</c:v>
@@ -1990,52 +3070,319 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>18</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="124">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="125">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3</c:v>
+                <c:pt idx="127">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,12 +3392,12 @@
               <c:f>microtaskComplexity!$J$2:$J$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="128"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -2062,52 +3409,52 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1</c:v>
@@ -2116,52 +3463,319 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="124">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="125">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2</c:v>
+                <c:pt idx="127">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4718,15 +6332,10 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J130" totalsRowShown="0">
-  <autoFilter ref="A1:J130" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="FOR_LOOP"/>
-        <filter val="IF_CONDITIONAL"/>
-        <filter val="WHILE_LOOP"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J130" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J130">
+    <sortCondition ref="B1:B130"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fileName"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ID"/>
@@ -5042,8 +6651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5087,30 +6696,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2">
-        <v>22</v>
+        <v>53.150849518197802</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5119,30 +6728,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>53.150849518197802</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5156,95 +6765,95 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>126.23326760571901</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>74</v>
-      </c>
-      <c r="H4">
-        <v>245.82267902166399</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
       <c r="J4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
+        <v>118</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>38</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
       <c r="H5">
-        <v>50.5323885970368</v>
+        <v>140.61670928936101</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>27.863137138648302</v>
+        <v>140.61670928936101</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
@@ -5252,31 +6861,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>140.61670928936101</v>
+        <v>27.863137138648302</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -5284,31 +6893,31 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="H8">
-        <v>140.61670928936101</v>
+        <v>50.5323885970368</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
@@ -5316,57 +6925,57 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>74</v>
+      </c>
+      <c r="H9">
+        <v>245.82267902166399</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>38</v>
-      </c>
-      <c r="H9">
-        <v>126.23326760571901</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>53.150849518197802</v>
+        <v>60</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5375,30 +6984,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H11">
-        <v>53.150849518197802</v>
+        <v>22</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5407,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5439,30 +7048,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>37.150849518197703</v>
+        <v>53.888725024519303</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5471,30 +7080,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H14">
-        <v>82.418050037500095</v>
+        <v>53.888725024519303</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5503,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5535,30 +7144,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H16">
-        <v>53.888725024519303</v>
+        <v>82.418050037500095</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5567,30 +7176,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17">
-        <v>53.888725024519303</v>
+        <v>37.150849518197703</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -5599,30 +7208,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H18">
-        <v>33.604512509374999</v>
+        <v>55.3509058981967</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -5631,30 +7240,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H19">
-        <v>33.604512509374999</v>
+        <v>55.3509058981967</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -5663,36 +7272,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>27.863137138648302</v>
+        <v>101.437600046154</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
@@ -5732,57 +7341,57 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>101.437600046154</v>
+        <v>27.863137138648302</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H23">
-        <v>55.3509058981967</v>
+        <v>33.604512509374999</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -5791,30 +7400,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>13</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H24">
-        <v>55.3509058981967</v>
+        <v>33.604512509374999</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5823,62 +7432,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>427</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>239</v>
+      </c>
+      <c r="H25">
+        <v>1312.5528900227901</v>
+      </c>
+      <c r="I25">
+        <v>14</v>
+      </c>
+      <c r="J25">
         <v>9</v>
       </c>
-      <c r="E25">
-        <v>62</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>27</v>
-      </c>
-      <c r="H25">
-        <v>75.798582895555299</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H26">
-        <v>79.2481250360578</v>
+        <v>63</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -5892,77 +7501,77 @@
         <v>13</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H27">
-        <v>203.15831097164201</v>
+        <v>63</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>13</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="H28">
-        <v>38</v>
+        <v>433.67220014999998</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>64</v>
@@ -5983,18 +7592,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>13</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>64</v>
@@ -6020,89 +7629,89 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="H31">
-        <v>433.67220014999998</v>
+        <v>38</v>
       </c>
       <c r="I31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E32">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H32">
-        <v>63</v>
+        <v>203.15831097164201</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>13</v>
       </c>
       <c r="B33">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
       </c>
       <c r="E33">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H33">
-        <v>63</v>
+        <v>79.2481250360578</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -6116,31 +7725,31 @@
         <v>13</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>427</v>
+        <v>62</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="H34">
-        <v>1312.5528900227901</v>
+        <v>75.798582895555299</v>
       </c>
       <c r="I34">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
@@ -6148,89 +7757,89 @@
         <v>16</v>
       </c>
       <c r="B35">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C35">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H35">
-        <v>117.28722505336501</v>
+        <v>33</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>16</v>
       </c>
       <c r="B36">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H36">
-        <v>136.19905189038101</v>
+        <v>33</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>16</v>
       </c>
       <c r="B37">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C37">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="E37">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H37">
-        <v>72.908275033173098</v>
+        <v>44.917678752921603</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -6244,31 +7853,31 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C38">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="H38">
-        <v>478.233152426289</v>
+        <v>44.917678752921603</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
@@ -6276,89 +7885,89 @@
         <v>16</v>
       </c>
       <c r="B39">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C39">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H39">
-        <v>117.28722505336501</v>
+        <v>44.917678752921603</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>16</v>
       </c>
       <c r="B40">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C40">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H40">
-        <v>136.19905189038101</v>
+        <v>44.917678752921603</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>16</v>
       </c>
       <c r="B41">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C41">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="E41">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H41">
-        <v>72.908275033173098</v>
+        <v>69.738350031730803</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -6372,16 +7981,16 @@
         <v>16</v>
       </c>
       <c r="B42">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
       </c>
       <c r="E42">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="F42">
         <v>4</v>
@@ -6404,191 +8013,191 @@
         <v>16</v>
       </c>
       <c r="B43">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C43">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H43">
-        <v>117.28722505336501</v>
+        <v>60</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>16</v>
       </c>
       <c r="B44">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C44">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E44">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H44">
-        <v>79.2481250360578</v>
+        <v>136.19905189038101</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>16</v>
       </c>
       <c r="B45">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C45">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H45">
-        <v>136.19905189038101</v>
+        <v>117.28722505336501</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>16</v>
       </c>
       <c r="B46">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C46">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="H46">
-        <v>72.908275033173098</v>
+        <v>478.233152426289</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>16</v>
       </c>
       <c r="B47">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C47">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E47">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H47">
-        <v>136.19905189038101</v>
+        <v>60</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>16</v>
       </c>
       <c r="B48">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C48">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E48">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H48">
-        <v>72.908275033173098</v>
+        <v>136.19905189038101</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
@@ -6596,31 +8205,31 @@
         <v>16</v>
       </c>
       <c r="B49">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C49">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
       </c>
       <c r="E49">
-        <v>302</v>
+        <v>51</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="H49">
-        <v>839.04813763197103</v>
+        <v>117.28722505336501</v>
       </c>
       <c r="I49">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J49">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
@@ -6628,57 +8237,57 @@
         <v>16</v>
       </c>
       <c r="B50">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C50">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
       </c>
       <c r="E50">
-        <v>54</v>
+        <v>302</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="H50">
-        <v>117.28722505336501</v>
+        <v>827.81183795843299</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>16</v>
       </c>
       <c r="B51">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="E51">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H51">
-        <v>79.2481250360578</v>
+        <v>72.908275033173098</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -6687,21 +8296,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>16</v>
       </c>
       <c r="B52">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
       </c>
       <c r="E52">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -6719,7 +8328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -6751,21 +8360,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>16</v>
       </c>
       <c r="B54">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C54">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
       </c>
       <c r="E54">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -6783,30 +8392,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>16</v>
       </c>
       <c r="B55">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C55">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
       </c>
       <c r="E55">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H55">
-        <v>72.908275033173098</v>
+        <v>79.2481250360578</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -6820,31 +8429,31 @@
         <v>16</v>
       </c>
       <c r="B56">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C56">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
       </c>
       <c r="E56">
-        <v>302</v>
+        <v>54</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G56">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="H56">
-        <v>827.81183795843299</v>
+        <v>117.28722505336501</v>
       </c>
       <c r="I56">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J56">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
@@ -6852,95 +8461,95 @@
         <v>16</v>
       </c>
       <c r="B57">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C57">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
       </c>
       <c r="E57">
-        <v>51</v>
+        <v>302</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G57">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="H57">
-        <v>117.28722505336501</v>
+        <v>839.04813763197103</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>16</v>
       </c>
       <c r="B58">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C58">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E58">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H58">
-        <v>136.19905189038101</v>
+        <v>72.908275033173098</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>16</v>
       </c>
       <c r="B59">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C59">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E59">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H59">
-        <v>60</v>
+        <v>136.19905189038101</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
@@ -6948,31 +8557,31 @@
         <v>16</v>
       </c>
       <c r="B60">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C60">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60">
-        <v>197</v>
+        <v>62</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="H60">
-        <v>478.233152426289</v>
+        <v>72.908275033173098</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
@@ -6980,95 +8589,95 @@
         <v>16</v>
       </c>
       <c r="B61">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C61">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>41</v>
+      </c>
+      <c r="H61">
+        <v>136.19905189038101</v>
+      </c>
+      <c r="I61">
         <v>2</v>
-      </c>
-      <c r="G61">
-        <v>37</v>
-      </c>
-      <c r="H61">
-        <v>117.28722505336501</v>
-      </c>
-      <c r="I61">
-        <v>3</v>
       </c>
       <c r="J61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>16</v>
       </c>
       <c r="B62">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C62">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H62">
-        <v>136.19905189038101</v>
+        <v>79.2481250360578</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>16</v>
       </c>
       <c r="B63">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H63">
-        <v>60</v>
+        <v>117.28722505336501</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
@@ -7076,16 +8685,16 @@
         <v>16</v>
       </c>
       <c r="B64">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C64">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="D64" t="s">
         <v>10</v>
       </c>
       <c r="E64">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F64">
         <v>4</v>
@@ -7103,30 +8712,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>16</v>
       </c>
       <c r="B65">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C65">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="E65">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H65">
-        <v>69.738350031730803</v>
+        <v>72.908275033173098</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -7135,126 +8744,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>16</v>
       </c>
       <c r="B66">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C66">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
       </c>
       <c r="E66">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>44.917678752921603</v>
+        <v>136.19905189038101</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>16</v>
       </c>
       <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <v>315</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>45</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
         <v>37</v>
       </c>
-      <c r="C67">
-        <v>259</v>
-      </c>
-      <c r="D67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67">
-        <v>37</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>16</v>
-      </c>
       <c r="H67">
-        <v>44.917678752921603</v>
+        <v>117.28722505336501</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>16</v>
       </c>
       <c r="B68">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C68">
-        <v>258</v>
+        <v>323</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G68">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="H68">
-        <v>44.917678752921603</v>
+        <v>478.233152426289</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>16</v>
       </c>
       <c r="B69">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C69">
-        <v>258</v>
+        <v>324</v>
       </c>
       <c r="D69" t="s">
         <v>11</v>
       </c>
       <c r="E69">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H69">
-        <v>44.917678752921603</v>
+        <v>72.908275033173098</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -7263,82 +8872,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>16</v>
       </c>
       <c r="B70">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C70">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E70">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H70">
-        <v>33</v>
+        <v>136.19905189038101</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>16</v>
       </c>
       <c r="B71">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C71">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E71">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>33</v>
+        <v>117.28722505336501</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>17</v>
       </c>
       <c r="B72">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C72">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E72">
         <v>49</v>
@@ -7347,10 +8956,10 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H72">
-        <v>61.7618082852672</v>
+        <v>54</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -7359,15 +8968,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>17</v>
       </c>
       <c r="B73">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C73">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="D73" t="s">
         <v>11</v>
@@ -7379,10 +8988,10 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H73">
-        <v>61.7618082852672</v>
+        <v>54</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -7391,18 +9000,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>17</v>
       </c>
       <c r="B74">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C74">
         <v>3288</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E74">
         <v>105</v>
@@ -7428,7 +9037,7 @@
         <v>17</v>
       </c>
       <c r="B75">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75">
         <v>3288</v>
@@ -7455,7 +9064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -7492,7 +9101,7 @@
         <v>17</v>
       </c>
       <c r="B77">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C77">
         <v>3288</v>
@@ -7519,18 +9128,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>17</v>
       </c>
       <c r="B78">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C78">
         <v>3288</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E78">
         <v>105</v>
@@ -7551,15 +9160,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>17</v>
       </c>
       <c r="B79">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C79">
-        <v>3287</v>
+        <v>3290</v>
       </c>
       <c r="D79" t="s">
         <v>11</v>
@@ -7571,10 +9180,10 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H79">
-        <v>54</v>
+        <v>61.7618082852672</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -7583,18 +9192,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>17</v>
       </c>
       <c r="B80">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C80">
-        <v>3287</v>
+        <v>3290</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E80">
         <v>49</v>
@@ -7603,10 +9212,10 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H80">
-        <v>54</v>
+        <v>61.7618082852672</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7615,30 +9224,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>18</v>
       </c>
       <c r="B81">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C81">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E81">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H81">
-        <v>63.3985000288462</v>
+        <v>13.931568569324099</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -7652,57 +9261,57 @@
         <v>18</v>
       </c>
       <c r="B82">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C82">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="F82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="H82">
-        <v>197.982455946995</v>
+        <v>18.575424759098802</v>
       </c>
       <c r="I82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>18</v>
       </c>
       <c r="B83">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C83">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
       </c>
       <c r="E83">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H83">
-        <v>96.793987519471202</v>
+        <v>18.575424759098802</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -7716,57 +9325,57 @@
         <v>18</v>
       </c>
       <c r="B84">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C84">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E84">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>26</v>
+      </c>
+      <c r="H84">
+        <v>86.370130467071405</v>
+      </c>
+      <c r="I84">
+        <v>5</v>
+      </c>
+      <c r="J84">
         <v>2</v>
       </c>
-      <c r="G84">
-        <v>53</v>
-      </c>
-      <c r="H84">
-        <v>201.78981086905199</v>
-      </c>
-      <c r="I84">
-        <v>4</v>
-      </c>
-      <c r="J84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>18</v>
       </c>
       <c r="B85">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C85">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
       </c>
       <c r="E85">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H85">
-        <v>39.302968908806399</v>
+        <v>7</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -7780,57 +9389,57 @@
         <v>18</v>
       </c>
       <c r="B86">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C86">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
       </c>
       <c r="E86">
-        <v>104</v>
+        <v>320</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G86">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="H86">
-        <v>284.61114340071998</v>
+        <v>915</v>
       </c>
       <c r="I86">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>18</v>
       </c>
       <c r="B87">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C87">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D87" t="s">
         <v>11</v>
       </c>
       <c r="E87">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H87">
-        <v>23.2192809488736</v>
+        <v>30.185065233535699</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -7839,7 +9448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -7871,30 +9480,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>18</v>
       </c>
       <c r="B89">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C89">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" t="s">
         <v>11</v>
       </c>
       <c r="E89">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H89">
-        <v>30.185065233535699</v>
+        <v>23.2192809488736</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -7908,57 +9517,57 @@
         <v>18</v>
       </c>
       <c r="B90">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C90">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
       </c>
       <c r="E90">
-        <v>320</v>
+        <v>104</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G90">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="H90">
-        <v>915</v>
+        <v>284.61114340071998</v>
       </c>
       <c r="I90">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J90">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>18</v>
       </c>
       <c r="B91">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C91">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
       </c>
       <c r="E91">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H91">
-        <v>7</v>
+        <v>39.302968908806399</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -7972,57 +9581,57 @@
         <v>18</v>
       </c>
       <c r="B92">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C92">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>53</v>
+      </c>
+      <c r="H92">
+        <v>201.78981086905199</v>
+      </c>
+      <c r="I92">
+        <v>4</v>
+      </c>
+      <c r="J92">
         <v>3</v>
       </c>
-      <c r="G92">
-        <v>26</v>
-      </c>
-      <c r="H92">
-        <v>86.370130467071405</v>
-      </c>
-      <c r="I92">
-        <v>5</v>
-      </c>
-      <c r="J92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>18</v>
       </c>
       <c r="B93">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C93">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
       </c>
       <c r="E93">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H93">
-        <v>18.575424759098802</v>
+        <v>96.793987519471202</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -8031,62 +9640,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>18</v>
       </c>
       <c r="B94">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C94">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E94">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="H94">
-        <v>18.575424759098802</v>
+        <v>197.982455946995</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>18</v>
       </c>
       <c r="B95">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C95">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H95">
-        <v>13.931568569324099</v>
+        <v>63.3985000288462</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -8095,30 +9704,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>18</v>
       </c>
       <c r="B96">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C96">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
       </c>
       <c r="E96">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H96">
-        <v>23.2192809488736</v>
+        <v>63.3985000288462</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -8127,7 +9736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -8159,30 +9768,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>18</v>
       </c>
       <c r="B98">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C98">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
       </c>
       <c r="E98">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
       <c r="G98">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H98">
-        <v>63.3985000288462</v>
+        <v>23.2192809488736</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -8196,121 +9805,121 @@
         <v>19</v>
       </c>
       <c r="B99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F99">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H99">
-        <v>217.94419197414899</v>
+        <v>39.302968908806399</v>
       </c>
       <c r="I99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>19</v>
       </c>
       <c r="B100">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C100">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E100">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G100">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="H100">
-        <v>39.302968908806399</v>
+        <v>217.94419197414899</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>19</v>
       </c>
       <c r="B101">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C101">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G101">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>51.6992500144231</v>
+        <v>112.94555522617</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>19</v>
       </c>
       <c r="B102">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C102">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D102" t="s">
         <v>11</v>
       </c>
       <c r="E102">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H102">
-        <v>73.082418087521901</v>
+        <v>51</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -8324,89 +9933,89 @@
         <v>19</v>
       </c>
       <c r="B103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C103">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E103">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H103">
-        <v>150.56842503028801</v>
+        <v>51</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>19</v>
       </c>
       <c r="B104">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C104">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E104">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H104">
-        <v>51</v>
+        <v>150.56842503028801</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>19</v>
       </c>
       <c r="B105">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C105">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D105" t="s">
         <v>11</v>
       </c>
       <c r="E105">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H105">
-        <v>51</v>
+        <v>73.082418087521901</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -8420,57 +10029,57 @@
         <v>19</v>
       </c>
       <c r="B106">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C106">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E106">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="F106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H106">
-        <v>112.94555522617</v>
+        <v>51.6992500144231</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>20</v>
       </c>
       <c r="B107">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C107">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E107">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="H107">
-        <v>124.539538270942</v>
+        <v>28.073549220576002</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -8479,36 +10088,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>20</v>
       </c>
       <c r="B108">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C108">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F108">
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <v>29</v>
+      </c>
+      <c r="H108">
+        <v>74.963912520913496</v>
+      </c>
+      <c r="I108">
+        <v>3</v>
+      </c>
+      <c r="J108">
         <v>2</v>
-      </c>
-      <c r="G108">
-        <v>26</v>
-      </c>
-      <c r="H108">
-        <v>72.991227973497701</v>
-      </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-      <c r="J108">
-        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.45">
@@ -8516,57 +10125,57 @@
         <v>20</v>
       </c>
       <c r="B109">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C109">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="F109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G109">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="H109">
-        <v>190.00301253822099</v>
+        <v>33.604512509374999</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>20</v>
       </c>
       <c r="B110">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C110">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
       </c>
       <c r="E110">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H110">
-        <v>102.97977094150799</v>
+        <v>33.604512509374999</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -8580,31 +10189,31 @@
         <v>20</v>
       </c>
       <c r="B111">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C111">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D111" t="s">
         <v>10</v>
       </c>
       <c r="E111">
-        <v>258</v>
+        <v>107</v>
       </c>
       <c r="F111">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G111">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="H111">
-        <v>686.75246927014302</v>
+        <v>187.530748589208</v>
       </c>
       <c r="I111">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J111">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
@@ -8612,42 +10221,42 @@
         <v>20</v>
       </c>
       <c r="B112">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C112">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G112">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H112">
-        <v>226.59965454529399</v>
+        <v>39.302968908806399</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>20</v>
       </c>
       <c r="B113">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C113">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -8659,10 +10268,10 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H113">
-        <v>50.5323885970368</v>
+        <v>39.302968908806399</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -8671,15 +10280,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>20</v>
       </c>
       <c r="B114">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C114">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D114" t="s">
         <v>11</v>
@@ -8691,10 +10300,10 @@
         <v>1</v>
       </c>
       <c r="G114">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H114">
-        <v>50.5323885970368</v>
+        <v>39.302968908806399</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -8703,15 +10312,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>20</v>
       </c>
       <c r="B115">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C115">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -8723,10 +10332,10 @@
         <v>1</v>
       </c>
       <c r="G115">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H115">
-        <v>50.5323885970368</v>
+        <v>39.302968908806399</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -8735,68 +10344,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>20</v>
       </c>
       <c r="B116">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C116">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E116">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G116">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H116">
-        <v>50.5323885970368</v>
+        <v>195.34452978042501</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>20</v>
       </c>
       <c r="B117">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C117">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117">
-        <v>27</v>
+        <v>579</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G117">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="H117">
-        <v>61.7618082852672</v>
+        <v>1675</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.45">
@@ -8804,63 +10413,63 @@
         <v>20</v>
       </c>
       <c r="B118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E118">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="F118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G118">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H118">
-        <v>161.32331253245201</v>
+        <v>37.150849518197703</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>20</v>
       </c>
       <c r="B119">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C119">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="F119">
+        <v>4</v>
+      </c>
+      <c r="G119">
+        <v>45</v>
+      </c>
+      <c r="H119">
+        <v>161.32331253245201</v>
+      </c>
+      <c r="I119">
+        <v>3</v>
+      </c>
+      <c r="J119">
         <v>2</v>
-      </c>
-      <c r="G119">
-        <v>16</v>
-      </c>
-      <c r="H119">
-        <v>37.150849518197703</v>
-      </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-      <c r="J119">
-        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.45">
@@ -8868,31 +10477,31 @@
         <v>20</v>
       </c>
       <c r="B120">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C120">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E120">
-        <v>579</v>
+        <v>27</v>
       </c>
       <c r="F120">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G120">
-        <v>335</v>
+        <v>22</v>
       </c>
       <c r="H120">
-        <v>1675</v>
+        <v>61.7618082852672</v>
       </c>
       <c r="I120">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J120">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.45">
@@ -8900,42 +10509,42 @@
         <v>20</v>
       </c>
       <c r="B121">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C121">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="F121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H121">
-        <v>195.34452978042501</v>
+        <v>50.5323885970368</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>20</v>
       </c>
       <c r="B122">
+        <v>120</v>
+      </c>
+      <c r="C122">
         <v>113</v>
-      </c>
-      <c r="C122">
-        <v>103</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -8947,10 +10556,10 @@
         <v>1</v>
       </c>
       <c r="G122">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H122">
-        <v>39.302968908806399</v>
+        <v>50.5323885970368</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -8959,15 +10568,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>20</v>
       </c>
       <c r="B123">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C123">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D123" t="s">
         <v>11</v>
@@ -8979,10 +10588,10 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H123">
-        <v>39.302968908806399</v>
+        <v>50.5323885970368</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -8991,15 +10600,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>20</v>
       </c>
       <c r="B124">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C124">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -9011,10 +10620,10 @@
         <v>1</v>
       </c>
       <c r="G124">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H124">
-        <v>39.302968908806399</v>
+        <v>50.5323885970368</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -9023,36 +10632,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>20</v>
       </c>
       <c r="B125">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C125">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E125">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G125">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H125">
-        <v>39.302968908806399</v>
+        <v>226.59965454529399</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.45">
@@ -9060,57 +10669,57 @@
         <v>20</v>
       </c>
       <c r="B126">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C126">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D126" t="s">
         <v>10</v>
       </c>
       <c r="E126">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="F126">
+        <v>8</v>
+      </c>
+      <c r="G126">
+        <v>154</v>
+      </c>
+      <c r="H126">
+        <v>686.75246927014302</v>
+      </c>
+      <c r="I126">
+        <v>8</v>
+      </c>
+      <c r="J126">
         <v>6</v>
       </c>
-      <c r="G126">
-        <v>48</v>
-      </c>
-      <c r="H126">
-        <v>187.530748589208</v>
-      </c>
-      <c r="I126">
-        <v>3</v>
-      </c>
-      <c r="J126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>20</v>
       </c>
       <c r="B127">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C127">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D127" t="s">
         <v>9</v>
       </c>
       <c r="E127">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H127">
-        <v>33.604512509374999</v>
+        <v>102.97977094150799</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -9119,36 +10728,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>20</v>
       </c>
       <c r="B128">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C128">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E128">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G128">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H128">
-        <v>33.604512509374999</v>
+        <v>190.00301253822099</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.45">
@@ -9156,57 +10765,57 @@
         <v>20</v>
       </c>
       <c r="B129">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C129">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E129">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H129">
-        <v>74.963912520913496</v>
+        <v>72.991227973497701</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>20</v>
       </c>
       <c r="B130">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C130">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E130">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G130">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>28.073549220576002</v>
+        <v>124.539538270942</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -9334,8 +10943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
